--- a/XLSX/ChrisC_df.xlsx
+++ b/XLSX/ChrisC_df.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yaroona/Downloads/NovaInitia2-main/XLSX/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E592C763-3E0D-AD4D-AE98-39F276AAE46B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16300" windowHeight="13540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -46,9 +52,6 @@
     <t>ch_r</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>en_l</t>
   </si>
   <si>
@@ -85,9 +88,6 @@
     <t>irm_r</t>
   </si>
   <si>
-    <t>pc</t>
-  </si>
-  <si>
     <t>np_l</t>
   </si>
   <si>
@@ -158,13 +158,19 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>zy_l</t>
+  </si>
+  <si>
+    <t>zy_r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +207,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -247,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,9 +293,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,6 +345,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,14 +538,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,12 +561,12 @@
         <v>92.34</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-19.74</v>
+        <v>-19.739999999999998</v>
       </c>
       <c r="C2">
         <v>-11.38</v>
@@ -523,7 +575,7 @@
         <v>92.19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -537,7 +589,7 @@
         <v>105.05</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -551,7 +603,7 @@
         <v>108.28</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -565,7 +617,7 @@
         <v>91.91</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -579,7 +631,7 @@
         <v>94.98</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -593,7 +645,7 @@
         <v>106.33</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -607,7 +659,7 @@
         <v>108.17</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -618,10 +670,10 @@
         <v>-45.56</v>
       </c>
       <c r="D9">
-        <v>78.23999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>78.239999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -635,536 +687,536 @@
         <v>81.63</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.09</v>
+        <v>18.97</v>
       </c>
       <c r="C11">
-        <v>-15.5</v>
+        <v>26.01</v>
       </c>
       <c r="D11">
-        <v>116.95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>81.540000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18.97</v>
+        <v>-19.32</v>
       </c>
       <c r="C12">
-        <v>26.01</v>
+        <v>26.72</v>
       </c>
       <c r="D12">
-        <v>81.54000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>82.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-19.32</v>
+        <v>52.1</v>
       </c>
       <c r="C13">
-        <v>26.72</v>
+        <v>28.52</v>
       </c>
       <c r="D13">
-        <v>82.06999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>69.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>52.1</v>
+        <v>-53.77</v>
       </c>
       <c r="C14">
-        <v>28.52</v>
+        <v>28.43</v>
       </c>
       <c r="D14">
-        <v>69.92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>72.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-53.77</v>
+        <v>2.31</v>
       </c>
       <c r="C15">
-        <v>28.43</v>
+        <v>42.8</v>
       </c>
       <c r="D15">
-        <v>72.91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>96.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.31</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C16">
-        <v>42.8</v>
+        <v>-52.77</v>
       </c>
       <c r="D16">
-        <v>96.93000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>96.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2.32</v>
+        <v>1.59</v>
       </c>
       <c r="C17">
-        <v>-52.77</v>
+        <v>-34.26</v>
       </c>
       <c r="D17">
-        <v>96.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>102.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.59</v>
+        <v>8.98</v>
       </c>
       <c r="C18">
-        <v>-34.26</v>
+        <v>14.72</v>
       </c>
       <c r="D18">
-        <v>102.53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>104.07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>8.98</v>
+        <v>-3.67</v>
       </c>
       <c r="C19">
-        <v>14.72</v>
+        <v>14.74</v>
       </c>
       <c r="D19">
-        <v>104.07</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>105.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-3.67</v>
+        <v>1.37</v>
       </c>
       <c r="C20">
-        <v>14.74</v>
+        <v>-89.97</v>
       </c>
       <c r="D20">
-        <v>105.09</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>92.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.37</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="C21">
-        <v>-89.97</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D21">
-        <v>92.67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>78.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>35.48</v>
+        <v>-37.450000000000003</v>
       </c>
       <c r="C22">
-        <v>9.300000000000001</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="D22">
-        <v>78.67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>82.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-37.45</v>
+        <v>19.84</v>
       </c>
       <c r="C23">
-        <v>10.05</v>
+        <v>5.92</v>
       </c>
       <c r="D23">
-        <v>82.04000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>88.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-17.34</v>
+        <v>-19.59</v>
       </c>
       <c r="C24">
-        <v>8.869999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="D24">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>89.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>19.84</v>
+        <v>3.1</v>
       </c>
       <c r="C25">
-        <v>5.92</v>
+        <v>22.76</v>
       </c>
       <c r="D25">
-        <v>88.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>104.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-19.59</v>
+        <v>4.09</v>
       </c>
       <c r="C26">
-        <v>7.99</v>
+        <v>-74.89</v>
       </c>
       <c r="D26">
-        <v>89.09</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>96.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3.1</v>
+        <v>14.62</v>
       </c>
       <c r="C27">
-        <v>22.76</v>
+        <v>-17.02</v>
       </c>
       <c r="D27">
-        <v>104.15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>99.38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4.09</v>
+        <v>-12.89</v>
       </c>
       <c r="C28">
-        <v>-74.89</v>
+        <v>-16.829999999999998</v>
       </c>
       <c r="D28">
-        <v>96.15000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>98.88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>14.62</v>
+        <v>2.36</v>
       </c>
       <c r="C29">
-        <v>-17.02</v>
+        <v>-8.09</v>
       </c>
       <c r="D29">
-        <v>99.38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>120.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-12.89</v>
+        <v>3.14</v>
       </c>
       <c r="C30">
-        <v>-16.83</v>
+        <v>13.07</v>
       </c>
       <c r="D30">
-        <v>98.88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>110.55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2.36</v>
+        <v>1.17</v>
       </c>
       <c r="C31">
-        <v>-8.09</v>
+        <v>-42.94</v>
       </c>
       <c r="D31">
-        <v>120.94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>98.96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>3.14</v>
+        <v>15.09</v>
       </c>
       <c r="C32">
-        <v>13.07</v>
+        <v>-19.559999999999999</v>
       </c>
       <c r="D32">
-        <v>110.55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>95.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.17</v>
+        <v>-14.75</v>
       </c>
       <c r="C33">
-        <v>-42.94</v>
+        <v>-16.87</v>
       </c>
       <c r="D33">
-        <v>98.95999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>97.63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>15.09</v>
+        <v>2.19</v>
       </c>
       <c r="C34">
-        <v>-19.56</v>
+        <v>-58.83</v>
       </c>
       <c r="D34">
-        <v>95.56999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>93.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-14.75</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="C35">
-        <v>-16.87</v>
+        <v>-17.350000000000001</v>
       </c>
       <c r="D35">
-        <v>97.63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>102.36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2.19</v>
+        <v>-5.55</v>
       </c>
       <c r="C36">
-        <v>-58.83</v>
+        <v>-17.84</v>
       </c>
       <c r="D36">
-        <v>93.12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>8.039999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="C37">
-        <v>-17.35</v>
+        <v>-21.04</v>
       </c>
       <c r="D37">
-        <v>102.36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>104.64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-5.55</v>
+        <v>35.89</v>
       </c>
       <c r="C38">
-        <v>-17.84</v>
+        <v>37.33</v>
       </c>
       <c r="D38">
-        <v>101.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>85.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1.38</v>
+        <v>-36.08</v>
       </c>
       <c r="C39">
-        <v>-21.04</v>
+        <v>37.369999999999997</v>
       </c>
       <c r="D39">
-        <v>104.64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>88.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>35.89</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C40">
-        <v>37.33</v>
+        <v>-0.66</v>
       </c>
       <c r="D40">
-        <v>85.95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>119.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-36.08</v>
+        <v>13.42</v>
       </c>
       <c r="C41">
-        <v>37.37</v>
+        <v>-1.33</v>
       </c>
       <c r="D41">
-        <v>88.17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>104.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>4.1</v>
+        <v>-9.2899999999999991</v>
       </c>
       <c r="C42">
-        <v>-0.66</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>119.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>103.81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>13.42</v>
+        <v>76.62</v>
       </c>
       <c r="C43">
-        <v>-1.33</v>
+        <v>14.84</v>
       </c>
       <c r="D43">
-        <v>104.23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-17.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-9.289999999999999</v>
+        <v>-84.66</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>14.64</v>
       </c>
       <c r="D44">
-        <v>103.81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-13.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>76.62</v>
+        <v>-0.85</v>
       </c>
       <c r="C45">
-        <v>14.84</v>
+        <v>99.81</v>
       </c>
       <c r="D45">
-        <v>-17.57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>84.41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-84.66</v>
+        <v>-8.08</v>
       </c>
       <c r="C46">
-        <v>14.64</v>
+        <v>143.26</v>
       </c>
       <c r="D46">
-        <v>-13.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>64.09</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.85</v>
+        <v>69.37</v>
       </c>
       <c r="C47">
-        <v>99.81</v>
+        <v>9.15</v>
       </c>
       <c r="D47">
-        <v>84.41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>50.47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-8.08</v>
+        <v>-65.23</v>
       </c>
       <c r="C48">
-        <v>143.26</v>
+        <v>4.88</v>
       </c>
       <c r="D48">
-        <v>64.09</v>
+        <v>66.5</v>
       </c>
     </row>
   </sheetData>
